--- a/LabStarters/Lab03/Lab3Rubric-CIS195_8wk.xlsx
+++ b/LabStarters/Lab03/Lab3Rubric-CIS195_8wk.xlsx
@@ -1,97 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CIS195-CourseMaterials/LabStarters/Lab03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CIS195-CourseMaterials\LabStarters\Lab03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9BAE121-2299-4A41-BA33-2BD4E11F5816}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7118A5FB-1DC3-4F4B-9F9C-63AF7B2E3DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="500" windowWidth="15900" windowHeight="14620" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
+    <workbookView xWindow="516" yWindow="3300" windowWidth="14916" windowHeight="12972" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Grade" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>Elements used:</t>
   </si>
   <si>
-    <t>blockquote</t>
-  </si>
-  <si>
-    <t>figure + figcaption</t>
-  </si>
-  <si>
-    <t>special characters</t>
-  </si>
-  <si>
-    <t>nested list</t>
-  </si>
-  <si>
-    <t>hr</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
     <t>Requirements:</t>
   </si>
   <si>
-    <t>Home page</t>
-  </si>
-  <si>
-    <t>Reviews in sub-folder</t>
-  </si>
-  <si>
-    <t>One figure per review</t>
-  </si>
-  <si>
-    <t>Images in sub-folder</t>
-  </si>
-  <si>
     <t>Possible</t>
   </si>
   <si>
     <t>Actual</t>
   </si>
   <si>
-    <t>Part 2: A multi-page web site</t>
-  </si>
-  <si>
-    <t>Correct syntax</t>
-  </si>
-  <si>
     <t>Part 1: Internal links</t>
   </si>
   <si>
-    <t>Here's the grade breakdown:</t>
-  </si>
-  <si>
-    <t>Best practices</t>
-  </si>
-  <si>
-    <t>2 more review pages</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Sub-total</t>
+    <t>hyperlinks to ids</t>
+  </si>
+  <si>
+    <t>image link</t>
+  </si>
+  <si>
+    <t>link to e-mail</t>
+  </si>
+  <si>
+    <t>Sub-total:</t>
+  </si>
+  <si>
+    <t>Part 2: A Restructured Site</t>
+  </si>
+  <si>
+    <t>Home folder</t>
+  </si>
+  <si>
+    <t>Review folders</t>
+  </si>
+  <si>
+    <t>nav element</t>
+  </si>
+  <si>
+    <t>nav links</t>
+  </si>
+  <si>
+    <t>Uploaded to server</t>
+  </si>
+  <si>
+    <t>Code quality</t>
+  </si>
+  <si>
+    <t>Indentation</t>
   </si>
 </sst>
 </file>
@@ -471,197 +470,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7896AEF-34AA-E746-914C-B3A1A695E7D1}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:B24"/>
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B3:B7)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B11" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3">
-        <f>SUM(B3:B10)</f>
-        <v>16</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="4">
+        <f>SUM(B11:B17)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3">
-        <f>SUM(B14:B21)</f>
-        <v>24</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <f>B11+B22</f>
+        <f>B8+B18</f>
         <v>40</v>
       </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <webPublishItems count="1">
     <webPublishItem id="90" divId="Lab3Rubric-CIS195_90" sourceType="sheet" destinationFile="C:\Users\Student\Documents\GitHub\CIS195-CourseMaterials\LabStarters\Lab03\Lab3Rubric-CIS195.htm"/>
   </webPublishItems>
@@ -670,271 +640,225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96879333-0874-3847-ABBB-D0DF183A7724}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B26"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.69921875" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" customWidth="1"/>
+    <col min="4" max="4" width="21.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <f>SUM(B3:B7)</f>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <f>SUM(C3:C7)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4">
+        <f>SUM(B11:B17)</f>
+        <v>20</v>
+      </c>
+      <c r="C18" s="4">
+        <f>SUM(C11:C17)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3">
-        <f>SUM(B5:B12)</f>
-        <v>16</v>
-      </c>
-      <c r="C13" s="3">
-        <f>SUM(C5:C12)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
       <c r="B20">
-        <v>4</v>
+        <f>B8+B18</f>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3">
-        <f>SUM(B16:B23)</f>
-        <v>24</v>
-      </c>
-      <c r="C24" s="3">
-        <f>SUM(C16:C23)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <f>B13+B24</f>
-        <v>40</v>
-      </c>
-      <c r="C26">
-        <f>C13+C24</f>
-        <v>40</v>
-      </c>
+        <f>C8+C18</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <webPublishItems count="1">
-    <webPublishItem id="30539" divId="Lab3Rubric-CIS195_30539" sourceType="range" sourceRef="A1:C23" destinationFile="D:\Repos\CIS195-CourseMaterials\LabStarters\Lab03\Lab3Rubric-CIS195.htm"/>
+    <webPublishItem id="30539" divId="Lab3Rubric-CIS195_30539" sourceType="range" sourceRef="A1:C22" destinationFile="D:\Repos\CIS195-CourseMaterials\LabStarters\Lab03\Lab3Rubric-CIS195.htm"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/LabStarters/Lab03/Lab3Rubric-CIS195_8wk.xlsx
+++ b/LabStarters/Lab03/Lab3Rubric-CIS195_8wk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CIS195-CourseMaterials\LabStarters\Lab03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7118A5FB-1DC3-4F4B-9F9C-63AF7B2E3DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E43A5C-96D6-4E98-891F-3398EE6A43D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="3300" windowWidth="14916" windowHeight="12972" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
+    <workbookView xWindow="516" yWindow="3300" windowWidth="14916" windowHeight="12972" activeTab="1" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>Elements used:</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Code quality</t>
-  </si>
-  <si>
-    <t>Indentation</t>
   </si>
 </sst>
 </file>
@@ -150,12 +147,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7896AEF-34AA-E746-914C-B3A1A695E7D1}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:B20"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -608,10 +604,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <f>SUM(B11:B17)</f>
         <v>20</v>
       </c>
@@ -640,10 +636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96879333-0874-3847-ABBB-D0DF183A7724}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:D20"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -654,12 +650,12 @@
     <col min="4" max="4" width="21.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -670,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -681,7 +677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -692,7 +688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -703,7 +699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -714,7 +710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -722,13 +718,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -738,15 +731,15 @@
       </c>
       <c r="C8">
         <f>SUM(C3:C7)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -757,7 +750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -768,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -779,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -790,7 +783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -801,7 +794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -824,14 +817,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <f>SUM(B11:B17)</f>
         <v>20</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <f>SUM(C11:C17)</f>
         <v>20</v>
       </c>
@@ -846,7 +839,7 @@
       </c>
       <c r="C20">
         <f>C8+C18</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">

--- a/LabStarters/Lab03/Lab3Rubric-CIS195_8wk.xlsx
+++ b/LabStarters/Lab03/Lab3Rubric-CIS195_8wk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CIS195-CourseMaterials\LabStarters\Lab03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E43A5C-96D6-4E98-891F-3398EE6A43D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{039E3BE0-BB50-451E-834E-27F1F5C4D08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="3300" windowWidth="14916" windowHeight="12972" activeTab="1" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
+    <workbookView xWindow="516" yWindow="3300" windowWidth="14916" windowHeight="12972" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>Elements used:</t>
   </si>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7896AEF-34AA-E746-914C-B3A1A695E7D1}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -496,7 +496,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -504,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -520,108 +520,114 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <f>SUM(B3:B7)</f>
+      <c r="B9">
+        <f>SUM(B3:B8)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B18">
-        <f>SUM(B11:B17)</f>
+      <c r="B19">
+        <f>SUM(B12:B18)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B20">
-        <f>B8+B18</f>
+      <c r="B21">
+        <f>B9+B19</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
@@ -636,10 +642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96879333-0874-3847-ABBB-D0DF183A7724}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -671,10 +677,10 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -682,10 +688,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -704,154 +710,165 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <f>SUM(B3:B7)</f>
+      <c r="B9">
+        <f>SUM(B3:B8)</f>
         <v>20</v>
       </c>
-      <c r="C8">
-        <f>SUM(C3:C7)</f>
+      <c r="C9">
+        <f>SUM(C3:C8)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B18">
-        <f>SUM(B11:B17)</f>
+      <c r="B19">
+        <f>SUM(B12:B18)</f>
         <v>20</v>
       </c>
-      <c r="C18">
-        <f>SUM(C11:C17)</f>
+      <c r="C19">
+        <f>SUM(C12:C18)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B20">
-        <f>B8+B18</f>
+      <c r="B21">
+        <f>B9+B19</f>
         <v>40</v>
       </c>
-      <c r="C20">
-        <f>C8+C18</f>
+      <c r="C21">
+        <f>C9+C19</f>
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <webPublishItems count="1">
-    <webPublishItem id="30539" divId="Lab3Rubric-CIS195_30539" sourceType="range" sourceRef="A1:C22" destinationFile="D:\Repos\CIS195-CourseMaterials\LabStarters\Lab03\Lab3Rubric-CIS195.htm"/>
+    <webPublishItem id="30539" divId="Lab3Rubric-CIS195_30539" sourceType="range" sourceRef="A1:C23" destinationFile="D:\Repos\CIS195-CourseMaterials\LabStarters\Lab03\Lab3Rubric-CIS195.htm"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/LabStarters/Lab03/Lab3Rubric-CIS195_8wk.xlsx
+++ b/LabStarters/Lab03/Lab3Rubric-CIS195_8wk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CIS195-CourseMaterials\LabStarters\Lab03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{039E3BE0-BB50-451E-834E-27F1F5C4D08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E18E90-C21A-427B-B860-CB1C6F7AFE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="3300" windowWidth="14916" windowHeight="12972" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
+    <workbookView xWindow="516" yWindow="3300" windowWidth="14916" windowHeight="12972" activeTab="1" xr2:uid="{5D75B731-65CD-014E-8BBA-DE69945DF98D}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -147,11 +147,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,13 +471,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7896AEF-34AA-E746-914C-B3A1A695E7D1}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:B21"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -642,18 +646,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96879333-0874-3847-ABBB-D0DF183A7724}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.69921875" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="6.19921875" customWidth="1"/>
-    <col min="4" max="4" width="21.69921875" customWidth="1"/>
+    <col min="4" max="4" width="1.5" customWidth="1"/>
+    <col min="5" max="5" width="20" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
